--- a/medicine/Enfance/Vanessa_Hié/Vanessa_Hié.xlsx
+++ b/medicine/Enfance/Vanessa_Hié/Vanessa_Hié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vanessa_Hi%C3%A9</t>
+          <t>Vanessa_Hié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vanessa Hié est une illustratrice de livres pour enfants française, née le 21 juin 1974.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vanessa_Hi%C3%A9</t>
+          <t>Vanessa_Hié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vanessa Hié fait des études d'arts appliqués et étudie le dessin à l’école Olivier de Serres d'où elle sort diplômée en 1994. Elle utilise plusieurs techniques : peinture acrylique, papier maché. Elle réalise également des sculptures et des bijoux. Elle a une prédilection pour les représentations d'animaux[1]. Elle dessine également pour la publicité ou l'édition musicale[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vanessa Hié fait des études d'arts appliqués et étudie le dessin à l’école Olivier de Serres d'où elle sort diplômée en 1994. Elle utilise plusieurs techniques : peinture acrylique, papier maché. Elle réalise également des sculptures et des bijoux. Elle a une prédilection pour les représentations d'animaux. Elle dessine également pour la publicité ou l'édition musicale.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vanessa_Hi%C3%A9</t>
+          <t>Vanessa_Hié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,48 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a réalisé de nombreux ouvrages[5],[6],[7].
-Illustratrice
-Sous le chapiteau des mots, Jean-Marie Henry et Alain Serres, Rue du monde, 2016
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a réalisé de nombreux ouvrages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vanessa_Hié</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vanessa_Hi%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sous le chapiteau des mots, Jean-Marie Henry et Alain Serres, Rue du monde, 2016
 La perruche et la sirène, de Véronique Massenot, L’Élan Vert/Canopé, 2015
 Les trois petits cochons moustachus, de Aimée de La Salle, Didier Jeunesse, 2015
 L’Opéra volant, de Carl Norac, Rue du monde, 2014
@@ -598,9 +649,43 @@
 L’Invité clandestin de Philippe Saussède, Nathan, 2000
 La Citrouille olympique de Hubert Ben Kemoun, Nathan, 2000
 Camille la louve de Jean-François Chabas, Hachette Jeunesse, 2000
-Peur sur la ferme de Sophie Dieuaide, Casterman, 1999
-Auteure et illustratrice
-Tempête sur l'île des amis, 2018</t>
+Peur sur la ferme de Sophie Dieuaide, Casterman, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vanessa_Hié</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vanessa_Hi%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tempête sur l'île des amis, 2018</t>
         </is>
       </c>
     </row>
